--- a/output/zaluski/sheets/zaluski_long_term_monthly_average_noise_levels.xlsx
+++ b/output/zaluski/sheets/zaluski_long_term_monthly_average_noise_levels.xlsx
@@ -145,7 +145,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6096000" cy="4572000"/>
+    <ext cx="15401925" cy="5943600"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61.61290322580645</v>
+        <v>67.20941069181544</v>
       </c>
       <c r="C2" t="n">
-        <v>50.38709677419355</v>
+        <v>61.33732834304631</v>
       </c>
     </row>
     <row r="3">
@@ -500,10 +500,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68.14642857142857</v>
+        <v>68.31474274795032</v>
       </c>
       <c r="C3" t="n">
-        <v>61.12142857142857</v>
+        <v>61.68662663707728</v>
       </c>
     </row>
     <row r="4">
@@ -513,10 +513,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>68.57741935483871</v>
+        <v>68.71663999108448</v>
       </c>
       <c r="C4" t="n">
-        <v>59.50645161290323</v>
+        <v>61.76090415362469</v>
       </c>
     </row>
     <row r="5">
@@ -526,10 +526,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43.31666666666667</v>
+        <v>69.22262916991677</v>
       </c>
       <c r="C5" t="n">
-        <v>34.94666666666667</v>
+        <v>62.5110669325733</v>
       </c>
     </row>
     <row r="6">
@@ -539,10 +539,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69.57741935483871</v>
+        <v>69.6658618964328</v>
       </c>
       <c r="C6" t="n">
-        <v>63.35806451612903</v>
+        <v>63.78779332591903</v>
       </c>
     </row>
     <row r="7">
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>69.20666666666666</v>
+        <v>69.26440820325232</v>
       </c>
       <c r="C7" t="n">
-        <v>62.05333333333333</v>
+        <v>62.44894368275947</v>
       </c>
     </row>
     <row r="8">
@@ -565,10 +565,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>69.33548387096775</v>
+        <v>69.372795327524</v>
       </c>
       <c r="C8" t="n">
-        <v>62.4741935483871</v>
+        <v>62.68378326665655</v>
       </c>
     </row>
     <row r="9">
@@ -578,10 +578,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>69.71935483870968</v>
+        <v>69.83147642349059</v>
       </c>
       <c r="C9" t="n">
-        <v>62.89354838709678</v>
+        <v>63.35387932051204</v>
       </c>
     </row>
     <row r="10">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>69.81999999999999</v>
+        <v>69.90014617581312</v>
       </c>
       <c r="C10" t="n">
-        <v>62.72333333333334</v>
+        <v>63.14875104622838</v>
       </c>
     </row>
     <row r="11">
@@ -604,10 +604,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>69.82903225806452</v>
+        <v>70.00856249184734</v>
       </c>
       <c r="C11" t="n">
-        <v>62.55806451612903</v>
+        <v>63.00172311213284</v>
       </c>
     </row>
     <row r="12">
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>67.36666666666666</v>
+        <v>70.16352767321557</v>
       </c>
       <c r="C12" t="n">
-        <v>58.44666666666667</v>
+        <v>63.09613474823273</v>
       </c>
     </row>
     <row r="13">
@@ -630,10 +630,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.63548387096773</v>
+        <v>68.90490939951366</v>
       </c>
       <c r="C13" t="n">
-        <v>60.93870967741935</v>
+        <v>62.2206839015164</v>
       </c>
     </row>
     <row r="14">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>68.28064516129032</v>
+        <v>68.57023283365423</v>
       </c>
       <c r="C14" t="n">
-        <v>60.49032258064516</v>
+        <v>61.23337062362791</v>
       </c>
     </row>
     <row r="15">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>68.24285714285715</v>
+        <v>68.46520110046501</v>
       </c>
       <c r="C15" t="n">
-        <v>60.23571428571428</v>
+        <v>60.68532560129263</v>
       </c>
     </row>
     <row r="16">
@@ -669,803 +669,725 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.03870967741936</v>
+        <v>68.32383703753855</v>
       </c>
       <c r="C16" t="n">
-        <v>27.51612903225806</v>
+        <v>61.68795881040673</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2019-04</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.66</v>
+        <v>69.66734858080291</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>61.1404591556763</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2019-05</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.964516129032258</v>
+        <v>70.1976627873686</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>62.36246342370378</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2019-06</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.013333333333334</v>
+        <v>70.12407995653075</v>
       </c>
       <c r="C19" t="n">
-        <v>2.323333333333333</v>
+        <v>62.23399559924063</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2019-07</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>69.63548387096773</v>
+        <v>69.28627714983266</v>
       </c>
       <c r="C20" t="n">
-        <v>60.85161290322581</v>
+        <v>60.33337204975766</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2019-08</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>70.17419354838709</v>
+        <v>70.27735824075106</v>
       </c>
       <c r="C21" t="n">
-        <v>61.93225806451613</v>
+        <v>63.26075549643546</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2019-09</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>70.08</v>
+        <v>68.85752551515048</v>
       </c>
       <c r="C22" t="n">
-        <v>61.85666666666667</v>
+        <v>61.19193028527057</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2019-10</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>35.75483870967742</v>
+        <v>68.4739218399264</v>
       </c>
       <c r="C23" t="n">
-        <v>31.04838709677419</v>
+        <v>60.42995623050439</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2019-11</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>70.22</v>
+        <v>66.81189399774914</v>
       </c>
       <c r="C24" t="n">
-        <v>62.84</v>
+        <v>60.45216077878109</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2019-12</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.70322580645161</v>
+        <v>67.17898091577048</v>
       </c>
       <c r="C25" t="n">
-        <v>60.47741935483871</v>
+        <v>61.03419247942136</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2020-01</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>68.36774193548388</v>
+        <v>64.64360761756819</v>
       </c>
       <c r="C26" t="n">
-        <v>60.19354838709678</v>
+        <v>56.36856476717497</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2020-02</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>65.7551724137931</v>
+        <v>66.05517844829293</v>
       </c>
       <c r="C27" t="n">
-        <v>55.72413793103448</v>
+        <v>58.9440207866211</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2020-03</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>33.49032258064516</v>
+        <v>65.70926415178261</v>
       </c>
       <c r="C28" t="n">
-        <v>27.31612903225806</v>
+        <v>57.99581624585184</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2020-04</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.233333333333333</v>
+        <v>64.93331670824374</v>
       </c>
       <c r="C29" t="n">
-        <v>1.2</v>
+        <v>58.33907215224639</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2020-05</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5.164516129032259</v>
+        <v>62.93715229560085</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>57.32682576864289</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2020-06</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9.106666666666666</v>
+        <v>64.59585866781994</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>58.71220460641804</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2020-07</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>64.13225806451612</v>
+        <v>62.44634380901881</v>
       </c>
       <c r="C32" t="n">
-        <v>53.00967741935484</v>
+        <v>56.87349903623898</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2020-08</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>65.99677419354838</v>
+        <v>61.24199957407984</v>
       </c>
       <c r="C33" t="n">
-        <v>57.50967741935484</v>
+        <v>55.86950447875968</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2020-09</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>65.64333333333333</v>
+        <v>61.26836164412373</v>
       </c>
       <c r="C34" t="n">
-        <v>57.16</v>
+        <v>54.24014073076303</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2020-10</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>64.71935483870968</v>
+        <v>62.15088008276538</v>
       </c>
       <c r="C35" t="n">
-        <v>55.78387096774193</v>
+        <v>56.65170219271993</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2020-11</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>62.31666666666667</v>
+        <v>63.77291971752962</v>
       </c>
       <c r="C36" t="n">
-        <v>50.21</v>
+        <v>57.87553971846236</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>64.33548387096775</v>
+        <v>65.50478993796068</v>
       </c>
       <c r="C37" t="n">
-        <v>55.65483870967742</v>
+        <v>58.90031050811107</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2021-01</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>61.89032258064516</v>
+        <v>67.18821159399404</v>
       </c>
       <c r="C38" t="n">
-        <v>55.06774193548387</v>
+        <v>60.76626657120963</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>60.68928571428571</v>
+        <v>67.47509712859488</v>
       </c>
       <c r="C39" t="n">
-        <v>47.97142857142858</v>
+        <v>61.11946650620248</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2021-03</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>60.95161290322581</v>
+        <v>67.46235777581509</v>
       </c>
       <c r="C40" t="n">
-        <v>47.30645161290322</v>
+        <v>61.02505424882046</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>53.68666666666666</v>
+        <v>67.16649385190068</v>
       </c>
       <c r="C41" t="n">
-        <v>38.35333333333333</v>
+        <v>60.93901052396173</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>57.35806451612903</v>
+        <v>66.36875198334971</v>
       </c>
       <c r="C42" t="n">
-        <v>47.55483870967742</v>
+        <v>59.43394041027295</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>63.85333333333333</v>
+        <v>65.82657992805839</v>
       </c>
       <c r="C43" t="n">
-        <v>55.87</v>
+        <v>59.66660197615411</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>67.09677419354838</v>
+        <v>64.71136583759728</v>
       </c>
       <c r="C44" t="n">
-        <v>60.19354838709678</v>
+        <v>58.02456815289119</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>67.36774193548388</v>
+        <v>64.89013533764431</v>
       </c>
       <c r="C45" t="n">
-        <v>60.50645161290323</v>
+        <v>58.18731632619446</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>67.33666666666666</v>
+        <v>66.14690445346294</v>
       </c>
       <c r="C46" t="n">
-        <v>60.62333333333333</v>
+        <v>59.67941314147274</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>65.88387096774194</v>
+        <v>66.77988892322306</v>
       </c>
       <c r="C47" t="n">
-        <v>58.43225806451613</v>
+        <v>61.3945033423464</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>66.09999999999999</v>
+        <v>67.23266154424599</v>
       </c>
       <c r="C48" t="n">
-        <v>58.98</v>
+        <v>60.45556515704517</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>65.26774193548387</v>
+        <v>68.66315426717451</v>
       </c>
       <c r="C49" t="n">
-        <v>56.75806451612903</v>
+        <v>62.1212392507185</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-07</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>64.4483870967742</v>
+        <v>68.20611741828326</v>
       </c>
       <c r="C50" t="n">
-        <v>57.41290322580645</v>
+        <v>61.29537768481639</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>64.70714285714286</v>
+        <v>68.88421293088139</v>
       </c>
       <c r="C51" t="n">
-        <v>55.66071428571428</v>
+        <v>62.47827866539293</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>63.80967741935483</v>
+        <v>68.88138883321301</v>
       </c>
       <c r="C52" t="n">
-        <v>56.96451612903226</v>
+        <v>62.00894704834481</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2022-04</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>66.69</v>
+        <v>67.83998219387725</v>
       </c>
       <c r="C53" t="n">
-        <v>60.22333333333334</v>
+        <v>59.96439663700664</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>67.15806451612903</v>
+        <v>68.1682200265975</v>
       </c>
       <c r="C54" t="n">
-        <v>59.82903225806452</v>
+        <v>61.64982175510963</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>68.61666666666666</v>
+        <v>67.26637202688062</v>
       </c>
       <c r="C55" t="n">
-        <v>61.76666666666667</v>
+        <v>60.60762308601323</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2022-07</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>68.16129032258064</v>
+        <v>67.62501642475135</v>
       </c>
       <c r="C56" t="n">
-        <v>61.05483870967742</v>
+        <v>61.17630084987248</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>62.16774193548387</v>
+        <v>66.75751980252689</v>
       </c>
       <c r="C57" t="n">
-        <v>58.19354838709678</v>
+        <v>60.36046785995003</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>68.80333333333333</v>
+        <v>67.50552522085444</v>
       </c>
       <c r="C58" t="n">
-        <v>61.52333333333333</v>
+        <v>60.94363366366959</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>41.27096774193549</v>
+        <v>68.70841115206477</v>
       </c>
       <c r="C59" t="n">
-        <v>34.72903225806451</v>
+        <v>61.68525294569157</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>68.03</v>
+        <v>68.98451052882015</v>
       </c>
       <c r="C60" t="n">
-        <v>61.17333333333333</v>
+        <v>62.45470694192016</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>66.81935483870969</v>
+        <v>69.04053018875102</v>
       </c>
       <c r="C61" t="n">
-        <v>58.04838709677419</v>
+        <v>62.75120729008496</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>67.51935483870967</v>
+        <v>68.38784344750563</v>
       </c>
       <c r="C62" t="n">
-        <v>60.7</v>
+        <v>61.43416007081364</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>66.69285714285715</v>
+        <v>69.14913671687216</v>
       </c>
       <c r="C63" t="n">
-        <v>59.68571428571429</v>
+        <v>63.07751617223344</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>67.32903225806452</v>
+        <v>69.4295745883462</v>
       </c>
       <c r="C64" t="n">
-        <v>60.60967741935484</v>
+        <v>63.40900835315477</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>68.63000000000001</v>
+        <v>68.92914111828981</v>
       </c>
       <c r="C65" t="n">
-        <v>59.17666666666666</v>
+        <v>61.45405171243</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>68.8967741935484</v>
+        <v>68.57654115741123</v>
       </c>
       <c r="C66" t="n">
-        <v>61.81290322580645</v>
+        <v>62.42538528313248</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>68.81</v>
+        <v>68.00246762721014</v>
       </c>
       <c r="C67" t="n">
-        <v>62.33666666666667</v>
+        <v>61.5408813428147</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>68.36451612903227</v>
+        <v>67.46872191469295</v>
       </c>
       <c r="C68" t="n">
-        <v>61.16451612903226</v>
+        <v>61.00899810233369</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2023-08</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>69.08709677419354</v>
+        <v>68.72547628907073</v>
       </c>
       <c r="C69" t="n">
-        <v>62.7</v>
+        <v>62.8207041500837</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>57.79666666666667</v>
+        <v>69.38655205265457</v>
       </c>
       <c r="C70" t="n">
-        <v>55.47333333333334</v>
+        <v>63.25195924673282</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>68.82580645161291</v>
+        <v>68.997763261223</v>
       </c>
       <c r="C71" t="n">
-        <v>60.96129032258064</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2023-11</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>68.41333333333334</v>
-      </c>
-      <c r="C72" t="n">
-        <v>61.47</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2023-12</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>67.84516129032258</v>
-      </c>
-      <c r="C73" t="n">
-        <v>60.48064516129033</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2024-01</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>67.32903225806452</v>
-      </c>
-      <c r="C74" t="n">
-        <v>60.05483870967742</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2024-02</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>56.75862068965517</v>
-      </c>
-      <c r="C75" t="n">
-        <v>50.97931034482758</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2024-03</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>69.32580645161291</v>
-      </c>
-      <c r="C76" t="n">
-        <v>62.7516129032258</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2024-04</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>68.91333333333334</v>
-      </c>
-      <c r="C77" t="n">
-        <v>59.79666666666667</v>
+        <v>62.24949114464288</v>
       </c>
     </row>
   </sheetData>
